--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUSP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9DF893-8E08-4CFF-A238-30D72E8E73CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F387E9A-CBDC-4130-8D69-A3183710E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$K$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$L$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="164">
   <si>
     <t>CU$CUSP</t>
   </si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>額度主檔</t>
-  </si>
-  <si>
-    <t>RateAdjNoticeCode</t>
   </si>
   <si>
     <t>利率調整通知</t>
@@ -522,6 +519,38 @@
   <si>
     <t>N:NUMBER
 C:CHARACTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為兩欄文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為三欄文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為多筆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateAdjNoticeCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為日期格式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -915,14 +944,15 @@
     <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,20 +960,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -960,23 +993,26 @@
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -993,15 +1029,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1018,23 +1055,24 @@
         <v>5</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1051,15 +1089,16 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1076,23 +1115,24 @@
         <v>5</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1109,23 +1149,24 @@
         <v>5</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1142,23 +1183,24 @@
         <v>5</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1175,15 +1217,16 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1200,23 +1243,24 @@
         <v>5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1233,21 +1277,22 @@
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1264,23 +1309,24 @@
         <v>5</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1297,23 +1343,24 @@
         <v>5</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1330,15 +1377,16 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1355,23 +1403,24 @@
         <v>5</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1388,23 +1437,26 @@
         <v>5</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1421,23 +1473,24 @@
         <v>5</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1454,15 +1507,16 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1479,23 +1533,26 @@
         <v>5</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1512,23 +1569,24 @@
         <v>5</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1545,23 +1603,24 @@
         <v>5</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1578,23 +1637,24 @@
         <v>5</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1611,23 +1671,26 @@
         <v>5</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1644,23 +1707,26 @@
         <v>5</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="4" t="s">
-        <v>144</v>
+      <c r="G24" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -1677,23 +1743,24 @@
         <v>5</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1710,23 +1777,24 @@
         <v>5</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1743,23 +1811,26 @@
         <v>5</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1776,23 +1847,26 @@
         <v>5</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
-        <v>144</v>
+      <c r="G28" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1809,23 +1883,26 @@
         <v>5</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="4" t="s">
-        <v>144</v>
+      <c r="G29" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -1842,23 +1919,26 @@
         <v>5</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="4" t="s">
-        <v>144</v>
+      <c r="G30" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1875,23 +1955,26 @@
         <v>5</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="4" t="s">
-        <v>144</v>
+      <c r="G31" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
@@ -1908,23 +1991,26 @@
         <v>5</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="4" t="s">
-        <v>144</v>
+      <c r="G32" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
@@ -1941,23 +2027,26 @@
         <v>5</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>144</v>
+      <c r="G33" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
@@ -1974,15 +2063,16 @@
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
@@ -1999,25 +2089,26 @@
         <v>5</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>69</v>
@@ -2032,15 +2123,16 @@
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -2057,25 +2149,26 @@
         <v>5</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>72</v>
@@ -2090,15 +2183,16 @@
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -2115,23 +2209,26 @@
         <v>5</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2148,23 +2245,26 @@
         <v>5</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -2181,23 +2281,24 @@
         <v>5</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -2214,25 +2315,26 @@
         <v>5</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
@@ -2247,15 +2349,16 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -2272,25 +2375,26 @@
         <v>5</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>84</v>
@@ -2305,15 +2409,16 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>85</v>
       </c>
@@ -2330,23 +2435,26 @@
         <v>5</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -2363,23 +2471,24 @@
         <v>5</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
@@ -2396,23 +2505,24 @@
         <v>5</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -2420,7 +2530,7 @@
         <v>91</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="3">
         <v>7</v>
@@ -2429,16 +2539,17 @@
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUSP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/CU$CUSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F387E9A-CBDC-4130-8D69-A3183710E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84326EAD-1D6F-447C-952E-1FEDF9DF191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,15 +932,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
